--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AB97B1-B6A0-42DF-AFA5-C8C9606DC59A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1741E-B79D-45B2-8B80-989B3DE8FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5052" yWindow="1512" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E73C039-318D-4D2D-BF22-1B2797CB2702}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5618F22-D29E-4184-AF08-55815C0429E6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A1741E-B79D-45B2-8B80-989B3DE8FC7A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737750BF-CE88-4C36-9DA3-9B467F289948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5052" yWindow="1512" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,15 +357,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5618F22-D29E-4184-AF08-55815C0429E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737750BF-CE88-4C36-9DA3-9B467F289948}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EDD69-7153-4669-B05E-6C96EC4814E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="1512" windowWidth="17280" windowHeight="8892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5052" yWindow="1512" windowWidth="17280" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -360,9 +356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{915EDD69-7153-4669-B05E-6C96EC4814E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A30FA-0A5F-414F-AC87-CD1FC1F420EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5052" yWindow="1512" windowWidth="17280" windowHeight="8760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -353,13 +353,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D946E745-7047-4145-8E8C-DDFCEDCCEA0C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -1,44 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610A30FA-0A5F-414F-AC87-CD1FC1F420EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,15 +420,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D946E745-7047-4145-8E8C-DDFCEDCCEA0C}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>num_exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp_dsgn</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>num_rep</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_4</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -1,43 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55EAE5-EFB5-4D1E-B527-C1949213FCE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,94 +46,26 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,120 +353,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:P2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FA47B6-B288-4A80-9998-D8737AD27290}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>author</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>num_exp</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>exp_dsgn</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>num_rep</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>performance_data_1</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>performance_data_2</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>performance_data_3</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>performance_data_4</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>performance_data_5</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>digestibility_data_1</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>digestibility_data_2</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>digestibility_data_3</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>digestibility_data_4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>digestibility_data_5</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input-form-for-meta-data/input-form-for-meta-data.xlsx
+++ b/input-form-for-meta-data/input-form-for-meta-data.xlsx
@@ -1,44 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Coding\mini-projects-and-others\input-form-for-meta-data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C55EAE5-EFB5-4D1E-B527-C1949213FCE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -46,26 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -353,15 +420,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FA47B6-B288-4A80-9998-D8737AD27290}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>author</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>num_exp</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>exp_dsgn</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>num_rep</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_3</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_4</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>performance_data_5</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_20</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>digestibility_data_5</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>